--- a/ConfigData/Excel/G怪物.xlsx
+++ b/ConfigData/Excel/G怪物.xlsx
@@ -5,17 +5,82 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="怪物配置" sheetId="1" r:id="rId1"/>
+    <sheet name="怪物配置表" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
-  <si>
-    <t xml:space="preserve">测试测试测试测试测试测试测试测试测试测试测试
-测试测试测试测试测试测试测试测试测试测试测试测试测试测试测试测试测试</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>怪物名字</t>
+  </si>
+  <si>
+    <t>预知路径</t>
+  </si>
+  <si>
+    <t>怪物等级</t>
+  </si>
+  <si>
+    <t>怪物稀有度</t>
+  </si>
+  <si>
+    <t>怪物高度</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>怪物1</t>
+  </si>
+  <si>
+    <t>Assets/GameData/Prefabs/Attack.prefab</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>0.8333333</t>
+  </si>
+  <si>
+    <t>怪物2</t>
+  </si>
+  <si>
+    <t>1.666667</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>怪物3</t>
+  </si>
+  <si>
+    <t>2.5</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>怪物4</t>
+  </si>
+  <si>
+    <t>3.333333</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>怪物5</t>
+  </si>
+  <si>
+    <t>4.166667</t>
   </si>
 </sst>
 </file>
@@ -49,11 +114,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" xfId="0"/>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" xfId="0">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -64,18 +126,138 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="79.0831386021205" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" customWidth="1"/>
+    <col min="3" max="3" width="35.6202523367746" customWidth="1"/>
+    <col min="4" max="4" width="9.140625" customWidth="1"/>
+    <col min="5" max="5" width="9.140625" customWidth="1"/>
+    <col min="6" max="6" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="0" t="s">
         <v>0</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="0" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" s="0" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" s="0" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5" s="0" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="F6" s="0" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>
